--- a/version6_original/version6/Tool/01_data/cases/TestDyn_windfarm/comb1.xlsx
+++ b/version6_original/version6/Tool/01_data/cases/TestDyn_windfarm/comb1.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\miniconda3\envs\gridcal_original\hp2c-dt\version6_original\version6\Tool\01_data\cases\TestDyn_windfarm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7361290-2129-4FC8-A450-2F1E5361A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321DB585-BDDD-40B2-8AD4-F53C88BF4031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
     <sheet name="global_DC" sheetId="2" r:id="rId2"/>
-    <sheet name="AC-NET" sheetId="3" r:id="rId3"/>
-    <sheet name="DC-NET" sheetId="4" r:id="rId4"/>
-    <sheet name="trafo" sheetId="5" r:id="rId5"/>
-    <sheet name="load" sheetId="6" r:id="rId6"/>
-    <sheet name="TH" sheetId="7" r:id="rId7"/>
+    <sheet name="TH" sheetId="7" r:id="rId3"/>
+    <sheet name="AC-NET" sheetId="3" r:id="rId4"/>
+    <sheet name="DC-NET" sheetId="4" r:id="rId5"/>
+    <sheet name="trafo" sheetId="5" r:id="rId6"/>
+    <sheet name="load" sheetId="6" r:id="rId7"/>
     <sheet name="shunt" sheetId="8" r:id="rId8"/>
     <sheet name="SG" sheetId="9" r:id="rId9"/>
     <sheet name="VSC" sheetId="10" r:id="rId10"/>
@@ -726,7 +726,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1996,11 +1996,109 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0.1</v>
+      </c>
+      <c r="N2">
+        <f>1/30</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2050,14 +2148,14 @@
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G2" s="2">
         <v>0.05</v>
       </c>
-      <c r="G2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H2">
-        <v>5.9999999999999995E-4</v>
+      <c r="H2" s="3">
+        <v>1.5799999999999999E-4</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2080,13 +2178,13 @@
         <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>0.04</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G3" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H3" s="3">
-        <v>1.5799999999999999E-4</v>
+        <v>3.1599999999999996E-5</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2109,13 +2207,13 @@
         <v>4</v>
       </c>
       <c r="F4" s="2">
-        <v>0.04</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G4" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H4" s="3">
-        <v>1.5799999999999999E-4</v>
+        <v>3.1599999999999996E-5</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2138,13 +2236,13 @@
         <v>5</v>
       </c>
       <c r="F5" s="2">
-        <v>0.04</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G5" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H5" s="3">
-        <v>1.5799999999999999E-4</v>
+        <v>3.1599999999999996E-5</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2167,13 +2265,13 @@
         <v>6</v>
       </c>
       <c r="F6" s="2">
-        <v>0.04</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G6" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H6" s="3">
-        <v>1.5799999999999999E-4</v>
+        <v>3.1599999999999996E-5</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2196,13 +2294,13 @@
         <v>7</v>
       </c>
       <c r="F7" s="2">
-        <v>0.04</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G7" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H7" s="3">
-        <v>1.5799999999999999E-4</v>
+        <v>3.1599999999999996E-5</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2225,13 +2323,13 @@
         <v>8</v>
       </c>
       <c r="F8" s="2">
-        <v>0.04</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G8" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H8" s="3">
-        <v>1.5799999999999999E-4</v>
+        <v>3.1599999999999996E-5</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2254,13 +2352,13 @@
         <v>9</v>
       </c>
       <c r="F9" s="2">
-        <v>0.04</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G9" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H9" s="3">
-        <v>1.5799999999999999E-4</v>
+        <v>3.1599999999999996E-5</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2283,13 +2381,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2">
-        <v>0.04</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G10" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H10" s="3">
-        <v>1.5799999999999999E-4</v>
+        <v>3.1599999999999996E-5</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2312,13 +2410,13 @@
         <v>11</v>
       </c>
       <c r="F11" s="2">
-        <v>0.04</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G11" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H11" s="3">
-        <v>1.5799999999999999E-4</v>
+        <v>3.1599999999999996E-5</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2341,13 +2439,13 @@
         <v>12</v>
       </c>
       <c r="F12" s="2">
-        <v>0.04</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G12" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H12" s="3">
-        <v>1.5799999999999999E-4</v>
+        <v>3.1599999999999996E-5</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2358,7 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -2409,7 +2507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -2457,7 +2555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -2503,103 +2601,6 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0.01</v>
-      </c>
-      <c r="N2">
-        <v>0.1</v>
       </c>
     </row>
   </sheetData>
